--- a/app/src/main/assets/Sanitation and Hygiene.xlsx
+++ b/app/src/main/assets/Sanitation and Hygiene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B755B71-232D-485C-BA4E-5579C7EDBDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D83BCC-27FF-4FB2-89A4-07CF692602CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Choice" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="83">
   <si>
     <t>Which of the following is NOT a critical limit in the HACCP system?</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>Right to report accidents</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -587,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,7 +609,10 @@
     <col min="6" max="6" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -622,8 +631,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -642,8 +657,14 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -662,8 +683,14 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -682,8 +709,14 @@
       <c r="G4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -702,8 +735,14 @@
       <c r="G5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -722,8 +761,14 @@
       <c r="G6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -742,8 +787,14 @@
       <c r="G7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
@@ -762,8 +813,14 @@
       <c r="G8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
@@ -782,8 +839,14 @@
       <c r="G9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -801,6 +864,9 @@
       </c>
       <c r="G10" t="s">
         <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -810,10 +876,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45006C35-F471-4878-9CF2-DBEE3FE49146}">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,84 +889,144 @@
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
       <c r="B1" t="s">
         <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
       <c r="B2" t="s">
         <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
       <c r="B3" t="s">
         <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
       <c r="B4" t="s">
         <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
       <c r="B5" t="s">
         <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
       <c r="B6" t="s">
         <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
       <c r="B7" t="s">
         <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
       <c r="B9" t="s">
         <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
       <c r="B10" t="s">
         <v>79</v>
       </c>
       <c r="C10" t="s">
         <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -910,9 +1036,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7796BC21-7C88-4829-B4B3-A64F638895D8}">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -922,84 +1048,144 @@
     <col min="2" max="2" width="120.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
       <c r="B1" t="s">
         <v>51</v>
       </c>
       <c r="C1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
       <c r="B3" t="s">
         <v>53</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
       <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
       <c r="B6" t="s">
         <v>56</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
       <c r="B8" t="s">
         <v>58</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
       <c r="B9" t="s">
         <v>59</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
